--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -1,47 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Test Results" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Test Results" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Duration (ms)</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Error Stack</t>
+  </si>
+  <si>
+    <t>Empty Columns</t>
+  </si>
+  <si>
+    <t>Missing Headers</t>
+  </si>
+  <si>
+    <t>Valid Excel file upload</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\addMemberUpload.spec.js</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Empty Excel file upload</t>
+  </si>
+  <si>
+    <t>Excel with missing columns</t>
+  </si>
+  <si>
+    <t>Invoice_Date, Product_description, Branch_Name, Customer Mail Id</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: saloni@yopmial.com</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mlocator[39m[2m).[22mtoBeVisible[2m()[22m failed
+Locator:  getByText('Invalid email saloni@yopmial.com in row 2')
+Expected: visible
+Received: &lt;element(s) not found&gt;
+Timeout:  5000ms
+Call log:
+[2m  - Expect "toBeVisible" with timeout 5000ms[22m
+[2m  - waiting for getByText('Invalid email saloni@yopmial.com in row 2')[22m
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mlocator[39m[2m).[22mtoBeVisible[2m()[22m failed
+Locator:  getByText('Invalid email saloni@yopmial.com in row 2')
+Expected: visible
+Received: &lt;element(s) not found&gt;
+Timeout:  5000ms
+Call log:
+[2m  - Expect "toBeVisible" with timeout 5000ms[22m
+[2m  - waiting for getByText('Invalid email saloni@yopmial.com in row 2')[22m
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\addMemberUpload.spec.js:193:71</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: plainaddress</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: #@%^%#$@#$@#.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: @domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: Joe Smith &lt;email@domain.com&gt;</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email.domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email@domain@domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: .email@domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email.@domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email..email@domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email@domain.com (Joe Smith)</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email@domain</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email@-domain.com</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email@111.222.333.444</t>
+  </si>
+  <si>
+    <t>should show an error for invalid email: email@domain..com</t>
+  </si>
+  <si>
+    <t>Validate Excel file for empty columns dynamically</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +167,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,71 +510,601 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="100" style="1" customWidth="1"/>
+    <col min="7" max="7" width="120" style="1" customWidth="1"/>
+    <col min="8" max="9" width="50" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>title</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-      <c r="C1" t="str">
-        <v>duration</v>
-      </c>
-      <c r="D1" t="str">
-        <v>error</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Valid Excel file upload</v>
-      </c>
-      <c r="B2" t="str">
-        <v>passed</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5596</v>
-      </c>
-      <c r="D2" t="str">
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Empty Excel file upload</v>
-      </c>
-      <c r="B3" t="str">
-        <v>passed</v>
+        <v>3770</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>4080</v>
-      </c>
-      <c r="D3" t="str">
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Excel with missing columns</v>
-      </c>
-      <c r="B4" t="str">
-        <v>passed</v>
+        <v>2365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3804</v>
-      </c>
-      <c r="D4" t="str">
-        <v>N/A</v>
+        <v>2596</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10619</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>5895</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>114</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>5595</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>114</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5420</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5427</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>114</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5526</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>114</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>114</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5358</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>114</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>5526</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>114</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5508</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>6853</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>114</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>5310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>114</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5390</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>114</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5428</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>114</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5446</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>199</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -46,7 +46,7 @@
     <t>passed</t>
   </si>
   <si>
-    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\addMemberUpload.spec.js</t>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\onevesco-addMemberflow.spec.js</t>
   </si>
   <si>
     <t/>
@@ -86,7 +86,7 @@
 Call log:
 [2m  - Expect "toBeVisible" with timeout 5000ms[22m
 [2m  - waiting for getByText('Invalid email saloni@yopmial.com in row 2')[22m
-    at D:\playwright\Project\WelcomeCure-corporate\tests\members\addMemberUpload.spec.js:193:71</t>
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\onevesco-addMemberflow.spec.js:193:71</t>
   </si>
   <si>
     <t>should show an error for invalid email: plainaddress</t>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3770</v>
+        <v>6047</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2365</v>
+        <v>2990</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>2596</v>
+        <v>3034</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>10619</v>
+        <v>10946</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5895</v>
+        <v>6062</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5616</v>
+        <v>5868</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5595</v>
+        <v>5663</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5420</v>
+        <v>5622</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>5427</v>
+        <v>5935</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>5526</v>
+        <v>5780</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5308</v>
+        <v>5767</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>5358</v>
+        <v>5576</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>5526</v>
+        <v>6111</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>5508</v>
+        <v>5824</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>6853</v>
+        <v>5639</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>5310</v>
+        <v>5595</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>5390</v>
+        <v>6762</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>5428</v>
+        <v>5610</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>5446</v>
+        <v>5925</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
   <si>
     <t>Test Name</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Test Case Outcome</t>
+  </si>
+  <si>
     <t>Duration (ms)</t>
   </si>
   <si>
@@ -46,7 +49,10 @@
     <t>passed</t>
   </si>
   <si>
-    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\onevesco-addMemberflow.spec.js</t>
+    <t>Member already registered.</t>
+  </si>
+  <si>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\addmember-hr-vfs.spec.js</t>
   </si>
   <si>
     <t/>
@@ -58,7 +64,7 @@
     <t>Excel with missing columns</t>
   </si>
   <si>
-    <t>Invoice_Date, Product_description, Branch_Name, Customer Mail Id</t>
+    <t>Email</t>
   </si>
   <si>
     <t>should show an error for invalid email: saloni@yopmial.com</t>
@@ -68,25 +74,25 @@
   </si>
   <si>
     <t xml:space="preserve">Error: [2mexpect([22m[31mlocator[39m[2m).[22mtoBeVisible[2m()[22m failed
-Locator:  getByText('Invalid email saloni@yopmial.com in row 2')
+Locator:  getByText('Please Enter a Valid Email saloni@yopmial.com')
 Expected: visible
 Received: &lt;element(s) not found&gt;
 Timeout:  5000ms
 Call log:
 [2m  - Expect "toBeVisible" with timeout 5000ms[22m
-[2m  - waiting for getByText('Invalid email saloni@yopmial.com in row 2')[22m
+[2m  - waiting for getByText('Please Enter a Valid Email saloni@yopmial.com')[22m
 </t>
   </si>
   <si>
     <t xml:space="preserve">Error: [2mexpect([22m[31mlocator[39m[2m).[22mtoBeVisible[2m()[22m failed
-Locator:  getByText('Invalid email saloni@yopmial.com in row 2')
+Locator:  getByText('Please Enter a Valid Email saloni@yopmial.com')
 Expected: visible
 Received: &lt;element(s) not found&gt;
 Timeout:  5000ms
 Call log:
 [2m  - Expect "toBeVisible" with timeout 5000ms[22m
-[2m  - waiting for getByText('Invalid email saloni@yopmial.com in row 2')[22m
-    at D:\playwright\Project\WelcomeCure-corporate\tests\members\onevesco-addMemberflow.spec.js:193:71</t>
+[2m  - waiting for getByText('Please Enter a Valid Email saloni@yopmial.com')[22m
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\addmember-hr-vfs.spec.js:154:75</t>
   </si>
   <si>
     <t>should show an error for invalid email: plainaddress</t>
@@ -511,26 +517,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="100" style="1" customWidth="1"/>
-    <col min="7" max="7" width="120" style="1" customWidth="1"/>
-    <col min="8" max="9" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="50" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="100" style="1" customWidth="1"/>
+    <col min="8" max="8" width="120" style="1" customWidth="1"/>
+    <col min="9" max="10" width="50" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -539,7 +547,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -551,556 +559,616 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>6047</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>5657</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>3337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2990</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>3034</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3859</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>10946</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>114</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>12350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>6062</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>114</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>7151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>5868</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>114</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>6996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>5663</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>114</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>6662</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>105</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>5622</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>114</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>6654</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>5935</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>114</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>6464</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>5780</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>114</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>6593</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>105</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>5767</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>114</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>7911</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>5576</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>114</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>6616</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>6111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>114</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>6678</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>105</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>5824</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>114</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>7554</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>5639</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>114</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>6607</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>105</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>5595</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>114</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>6883</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>105</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>6762</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>114</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>6659</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>5610</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>114</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>6411</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>5925</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>199</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>7230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -43,7 +43,7 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>HR- Add Family member - successful addition</t>
+    <t>Admin Export - VFS UKLP - Member List</t>
   </si>
   <si>
     <t>failed</t>
@@ -52,19 +52,20 @@
     <t/>
   </si>
   <si>
-    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\member-list-hr-vfs.spec.js</t>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-vfs-uklp-member-list.spec.js</t>
   </si>
   <si>
     <t xml:space="preserve">TimeoutError: locator.click: Timeout 30000ms exceeded.
 Call log:
-[2m  - waiting for getByText('Spouse', { exact: true })[22m
+[2m  - waiting for getByRole('link', { name: 'Member List' })[22m
 </t>
   </si>
   <si>
     <t xml:space="preserve">TimeoutError: locator.click: Timeout 30000ms exceeded.
 Call log:
-[2m  - waiting for getByText('Spouse', { exact: true })[22m
-    at D:\playwright\Project\WelcomeCure-corporate\tests\members\member-list-hr-vfs.spec.js:53:53</t>
+[2m  - waiting for getByRole('link', { name: 'Member List' })[22m
+    at Object.memberListNav (D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-vfs-uklp-member-list.spec.js:16:63)
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-vfs-uklp-member-list.spec.js:25:5</t>
   </si>
 </sst>
 </file>
@@ -501,13 +502,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>33623</v>
+        <v>33960</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,29 +43,19 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Admin Export - VFS UKLP - Member List</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>Admin Export - Family Member (Static Date via Fill)</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-vfs-uklp-member-list.spec.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeoutError: locator.click: Timeout 30000ms exceeded.
-Call log:
-[2m  - waiting for getByRole('link', { name: 'Member List' })[22m
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeoutError: locator.click: Timeout 30000ms exceeded.
-Call log:
-[2m  - waiting for getByRole('link', { name: 'Member List' })[22m
-    at Object.memberListNav (D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-vfs-uklp-member-list.spec.js:16:63)
-    at D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-vfs-uklp-member-list.spec.js:25:5</t>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Search by Name and Static Date)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -502,24 +492,56 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>33960</v>
+        <v>47273</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>47008</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
   <si>
     <t>Test Name</t>
   </si>
@@ -46,16 +46,52 @@
     <t>Admin Export - Family Member (Static Date via Fill)</t>
   </si>
   <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Static Single Date via Fill)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Static Invalid Date via Fill)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Search by Name and Static Date)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Search by blank field and Static Date)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Search by Name(invalid-long string) and Static Date)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Search by Name(invalid-special charecters@#$%^&amp;) and Static Date)</t>
+  </si>
+  <si>
     <t>passed</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search by Name and Static Date)</t>
+    <t>Admin Export - Family Member (Search by Invalid Name and Static Date)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Filter by Branch and Static Date)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Search + Filter + Date)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Without Date Selection)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Date + Search + Filter)</t>
+  </si>
+  <si>
+    <t>Admin Export - Family Member (Date + Filter + Search)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -492,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>47273</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -524,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>47008</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -542,6 +578,358 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>122</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>152</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>167</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>185</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>5508</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>203</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>247</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>266</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>286</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>307</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>317</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>338</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,10 +43,10 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Admin Export - Family Member (Static Date via Fill)</t>
-  </si>
-  <si>
-    <t>skipped</t>
+    <t>Admin Export - Family Member (Static Date)</t>
+  </si>
+  <si>
+    <t>interrupted</t>
   </si>
   <si>
     <t/>
@@ -55,43 +55,18 @@
     <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js</t>
   </si>
   <si>
-    <t>Admin Export - Family Member (Static Single Date via Fill)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Static Invalid Date via Fill)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search by Name and Static Date)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search by blank field and Static Date)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search by Name(invalid-long string) and Static Date)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search by Name(invalid-special charecters@#$%^&amp;) and Static Date)</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search by Invalid Name and Static Date)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Filter by Branch and Static Date)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Search + Filter + Date)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Without Date Selection)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Date + Search + Filter)</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Date + Filter + Search)</t>
+    <t xml:space="preserve">Error: page.waitForNavigation: Test ended.
+=========================== logs ===========================
+waiting for navigation until "load"
+============================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: page.waitForNavigation: Test ended.
+=========================== logs ===========================
+waiting for navigation until "load"
+============================================================
+    at LoginPage.login (D:\playwright\Project\WelcomeCure-corporate\pages\LoginPage.js:22:21)
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js:411:5</t>
   </si>
 </sst>
 </file>
@@ -471,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -528,408 +503,24 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22159</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>93</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>122</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>152</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>167</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>185</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>5508</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>203</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>247</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>266</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>286</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>307</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>317</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>338</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test Name</t>
   </si>
@@ -41,32 +41,6 @@
   </si>
   <si>
     <t>Missing Headers</t>
-  </si>
-  <si>
-    <t>Admin Export - Family Member (Static Date)</t>
-  </si>
-  <si>
-    <t>interrupted</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: page.waitForNavigation: Test ended.
-=========================== logs ===========================
-waiting for navigation until "load"
-============================================================</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: page.waitForNavigation: Test ended.
-=========================== logs ===========================
-waiting for navigation until "load"
-============================================================
-    at LoginPage.login (D:\playwright\Project\WelcomeCure-corporate\pages\LoginPage.js:22:21)
-    at D:\playwright\Project\WelcomeCure-corporate\tests\members\export\admin-export-family-member.spec.js:411:5</t>
   </si>
 </sst>
 </file>
@@ -446,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -492,38 +466,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>22159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>420</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
   <si>
     <t>Test Name</t>
   </si>
@@ -41,6 +41,80 @@
   </si>
   <si>
     <t>Missing Headers</t>
+  </si>
+  <si>
+    <t>Search by valid admin name (positive)</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D:\playwright\Project\WelcomeCure-corporate\tests\members\addadmin-admin-vfs.spec.js</t>
+  </si>
+  <si>
+    <t>Search with partial name match</t>
+  </si>
+  <si>
+    <t>Search is case-insensitive</t>
+  </si>
+  <si>
+    <t>Clear search shows full list</t>
+  </si>
+  <si>
+    <t>Search by email (negative - should show "Admin not found")</t>
+  </si>
+  <si>
+    <t>Search by phone number (negative)</t>
+  </si>
+  <si>
+    <t>Search by corporate name (negative)</t>
+  </si>
+  <si>
+    <t>Search with invalid name (e.g., numbers)</t>
+  </si>
+  <si>
+    <t>Add new admin with valid data</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBeGreaterThanOrEqual[2m([22m[32mexpected[39m[2m)[22m
+Expected: &gt;= [32m1[39m
+Received:    [31m0[39m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBeGreaterThanOrEqual[2m([22m[32mexpected[39m[2m)[22m
+Expected: &gt;= [32m1[39m
+Received:    [31m0[39m
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\addadmin-admin-vfs.spec.js:121:22</t>
+  </si>
+  <si>
+    <t>Toggle admin status (Active ↔ Inactive)</t>
+  </si>
+  <si>
+    <t>Click email icon opens mailto link</t>
+  </si>
+  <si>
+    <t>Delete admin - cancel action</t>
+  </si>
+  <si>
+    <t>Pagination - navigate to next page</t>
+  </si>
+  <si>
+    <t>Empty state when no admins exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBeTruthy[2m()[22m
+Received: [31mfalse[39m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBeTruthy[2m()[22m
+Received: [31mfalse[39m
+    at D:\playwright\Project\WelcomeCure-corporate\tests\members\addadmin-admin-vfs.spec.js:209:28</t>
   </si>
 </sst>
 </file>
@@ -420,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -466,6 +540,454 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>6425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>5713</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>5836</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>7528</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5933</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5540</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>5403</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>5652</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>9508</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>4507</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>149</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>3514</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>167</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>5212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>178</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>3593</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>193</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>3898</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>203</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,27 +43,16 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Team Member - Filter by Status = Active</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>Team Member - Filter by Role = Accountant and Status = Active</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>D:\Playwright\WelcomeCure-corporate\tests\members\team-member-admin-vfs.spec.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
-Expected: [32m10[39m
-Received: [31m0[39m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
-Expected: [32m10[39m
-Received: [31m0[39m
-    at D:\Playwright\WelcomeCure-corporate\tests\members\team-member-admin-vfs.spec.js:238:23</t>
   </si>
 </sst>
 </file>
@@ -500,19 +489,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>6392</v>
+        <v>9380</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,16 +43,25 @@
     <t>Missing Headers</t>
   </si>
   <si>
+    <t>Team Member - Filter by Role = Accountant</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\team-member-admin-vfs.spec.js</t>
+  </si>
+  <si>
+    <t>Team Member - Filter by Status = Active</t>
+  </si>
+  <si>
     <t>Team Member - Filter by Role = Accountant and Status = Active</t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\team-member-admin-vfs.spec.js</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -489,13 +498,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>9380</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -507,6 +516,70 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>406</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>8292</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>429</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Team Member - Filter by Role = Accountant</t>
+    <t>Click Add button opens form</t>
   </si>
   <si>
     <t>skipped</t>
@@ -52,16 +52,31 @@
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\team-member-admin-vfs.spec.js</t>
-  </si>
-  <si>
-    <t>Team Member - Filter by Status = Active</t>
-  </si>
-  <si>
-    <t>Team Member - Filter by Role = Accountant and Status = Active</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\onevesco-branch-page.spec.js</t>
+  </si>
+  <si>
+    <t>Submit form without mandatory fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new branch </t>
+  </si>
+  <si>
+    <t>handle duplicate entry</t>
+  </si>
+  <si>
+    <t>should display 10 team members by default</t>
+  </si>
+  <si>
+    <t>should display 25 items when selecting 25 per page</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>should navigate to page 2 using Next button</t>
+  </si>
+  <si>
+    <t>should reset to page 1 after performing a search</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -504,7 +519,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -536,7 +551,7 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>406</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -556,19 +571,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>8292</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>429</v>
+        <v>136</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -580,6 +595,166 @@
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>149</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>7597</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>177</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>189</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>204</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,40 +43,28 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Click Add button opens form</t>
-  </si>
-  <si>
-    <t>skipped</t>
+    <t>Search by valid admin name</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\onevesco-branch-page.spec.js</t>
-  </si>
-  <si>
-    <t>Submit form without mandatory fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add new branch </t>
-  </si>
-  <si>
-    <t>handle duplicate entry</t>
-  </si>
-  <si>
-    <t>should display 10 team members by default</t>
-  </si>
-  <si>
-    <t>should display 25 items when selecting 25 per page</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>should navigate to page 2 using Next button</t>
-  </si>
-  <si>
-    <t>should reset to page 1 after performing a search</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\vfs-uklp-team-member-other-function.spec.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: locator.fill: Target page, context or browser has been closed
+Call log:
+[2m  - waiting for locator('//input[contains(@placeholder,\'Search By Name, Email, Contact No\')]')[22m
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: locator.fill: Target page, context or browser has been closed
+Call log:
+[2m  - waiting for locator('//input[contains(@placeholder,\'Search By Name, Email, Contact No\')]')[22m
+    at D:\Playwright\WelcomeCure-corporate\tests\members\vfs-uklp-team-member-other-function.spec.js:31:38</t>
   </si>
 </sst>
 </file>
@@ -456,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
@@ -513,248 +501,24 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6444</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>127</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>136</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>149</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>166</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>7597</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>177</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>189</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>204</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,28 +43,16 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Search by valid admin name</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>should reset to page 1 after performing a search</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\vfs-uklp-team-member-other-function.spec.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: locator.fill: Target page, context or browser has been closed
-Call log:
-[2m  - waiting for locator('//input[contains(@placeholder,\'Search By Name, Email, Contact No\')]')[22m
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: locator.fill: Target page, context or browser has been closed
-Call log:
-[2m  - waiting for locator('//input[contains(@placeholder,\'Search By Name, Email, Contact No\')]')[22m
-    at D:\Playwright\WelcomeCure-corporate\tests\members\vfs-uklp-team-member-other-function.spec.js:31:38</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\export\vfs-uklp-accountant-member-list-export.spec.js</t>
   </si>
 </sst>
 </file>
@@ -501,19 +489,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>6444</v>
+        <v>6499</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>501</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,16 +43,27 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>should reset to page 1 after performing a search</t>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>Contact Number column should display masked values (e.g., **********) in UI</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\export\vfs-uklp-accountant-member-list-export.spec.js</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\export\vfs-uklp-accountant-member-refund-export.spec.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoMatch[2m([22m[32mexpected[39m[2m)[22m
+Expected pattern: [32m/^\*+$/[39m
+Received string:  [31m"** ***********"[39m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoMatch[2m([22m[32mexpected[39m[2m)[22m
+Expected pattern: [32m/^\*+$/[39m
+Received string:  [31m"** ***********"[39m
+    at D:\Playwright\WelcomeCure-corporate\tests\members\export\vfs-uklp-accountant-member-refund-export.spec.js:563:22</t>
   </si>
 </sst>
 </file>
@@ -489,19 +500,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>6499</v>
+        <v>3158</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -43,7 +43,7 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Contact Number column should display masked values (e.g., **********) in UI</t>
+    <t>should mask email and contact number</t>
   </si>
   <si>
     <t>failed</t>
@@ -52,18 +52,14 @@
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\export\vfs-uklp-accountant-member-refund-export.spec.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoMatch[2m([22m[32mexpected[39m[2m)[22m
-Expected pattern: [32m/^\*+$/[39m
-Received string:  [31m"** ***********"[39m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoMatch[2m([22m[32mexpected[39m[2m)[22m
-Expected pattern: [32m/^\*+$/[39m
-Received string:  [31m"** ***********"[39m
-    at D:\Playwright\WelcomeCure-corporate\tests\members\export\vfs-uklp-accountant-member-refund-export.spec.js:563:22</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\masking-check.spec.js</t>
+  </si>
+  <si>
+    <t>Error: Please use browser.newContext()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: Please use browser.newContext()
+    at D:\Playwright\WelcomeCure-corporate\tests\members\masking-check.spec.js:83:42</t>
   </si>
 </sst>
 </file>
@@ -500,13 +496,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3158</v>
+        <v>10231</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>554</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,23 +43,16 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>should mask email and contact number</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>Upload member data for Spain</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\masking-check.spec.js</t>
-  </si>
-  <si>
-    <t>Error: Please use browser.newContext()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error: Please use browser.newContext()
-    at D:\Playwright\WelcomeCure-corporate\tests\members\masking-check.spec.js:83:42</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\api-tests\upload-member-countrywise.spec.js</t>
   </si>
 </sst>
 </file>
@@ -496,19 +489,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10231</v>
+        <v>4092</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -43,7 +43,7 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Upload member data for Spain</t>
+    <t>Search by valid admin name (positive)</t>
   </si>
   <si>
     <t>passed</t>
@@ -52,7 +52,7 @@
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\api-tests\upload-member-countrywise.spec.js</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\old-flow-co-login\add-admin-co-vfs.spec.js</t>
   </si>
 </sst>
 </file>
@@ -489,13 +489,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4092</v>
+        <v>5091</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>

--- a/test-report.xlsx
+++ b/test-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,16 +43,28 @@
     <t>Missing Headers</t>
   </si>
   <si>
-    <t>Search by valid admin name (positive)</t>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>Edit member details and verify the update</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\Playwright\WelcomeCure-corporate\tests\members\old-flow-co-login\add-admin-co-vfs.spec.js</t>
+    <t>D:\Playwright\WelcomeCure-corporate\tests\members\staging-admin\member-list-admin1.spec.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeoutError: locator.fill: Timeout 30000ms exceeded.
+Call log:
+[2m  - waiting for getByLabel('Member Name*')[22m
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeoutError: locator.fill: Timeout 30000ms exceeded.
+Call log:
+[2m  - waiting for getByLabel('Member Name*')[22m
+    at D:\Playwright\WelcomeCure-corporate\tests\members\staging-admin\member-list-admin1.spec.js:224:43</t>
   </si>
 </sst>
 </file>
@@ -489,19 +501,19 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5091</v>
+        <v>39597</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
